--- a/05-мода-медиана-персентиль-квартиль/задача.xlsx
+++ b/05-мода-медиана-персентиль-квартиль/задача.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8448"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11472" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Решение" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Шт.единицы</t>
   </si>
@@ -202,6 +202,12 @@
 Теперь выполните шаги 4-6 приняв минимальной нормативной нагрузкой вместо среднего МЕДИАНУ (расчеты делайте в колонках G и H)
 Далее выполните шаги 4-6 приняв минимальной нормативной нагрузкой вместо среднего ТРЕТИЙ КВАРТИЛЬ (Q3) (расчеты делайте в колонках I и J)
 Выберите минимальной нормативной нагрузкой ту описательную статистику (медиану, среднее или 3-й квартиль), которая позволяет выполнить условие задачи - оптимизация минимум 15% должностей.</t>
+  </si>
+  <si>
+    <t>среднее</t>
+  </si>
+  <si>
+    <t>медиана</t>
   </si>
 </sst>
 </file>
@@ -705,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1974,7 +1980,7 @@
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16">
-        <f t="shared" ref="I34:J34" si="12">J32/$C$32</f>
+        <f t="shared" ref="J34" si="12">J32/$C$32</f>
         <v>-0.16942133549289556</v>
       </c>
     </row>
@@ -2003,6 +2009,12 @@
       <c r="D36" s="22">
         <f>MEDIAN(D2:D31)</f>
         <v>43.142857142857139</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
